--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Taking off</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Aircraft will land .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Critically Low Voltage</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-12</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1487,26 +1487,26 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1547,91 +1547,91 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1720,36 +1720,6 @@
         </is>
       </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>22</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,21 +917,21 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Taking off</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,21 +977,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Critically Low Voltage</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1427,21 +1427,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1487,26 +1487,26 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1547,91 +1547,91 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,21 +1667,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1706,20 +1706,50 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>22</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
